--- a/Dokumente/Teilelistexlsx.xlsx
+++ b/Dokumente/Teilelistexlsx.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukas\Documents\GitHub\callForHelp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukas\Documents\GitHub\callForHelp\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EE929E-F18C-4ADC-A4B9-A880590A6387}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5AC6E2-5503-4443-A408-8C58801EBFC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{143D6FF0-2072-4F77-BF3E-E2C2F466FEBA}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>Art. ID</t>
   </si>
@@ -142,6 +142,24 @@
   </si>
   <si>
     <t>Sanyo/Panasonic NCR18650GA 3,6V - 3,7V 3500mAh (Pluspol flach)</t>
+  </si>
+  <si>
+    <t>5 x SIM800L GSM GPRS Modul mit Antenne für Arduino inklusive Ebook</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/AZDelivery-SIM800L-Modul-Antenne-Arduino/dp/B07V6M4S3M/ref=sr_1_39?dchild=1&amp;keywords=Arduino%2BGps&amp;qid=1587116895&amp;sr=8-39&amp;swrs=6C4B5933560F1CB11793E6B14B11DC77&amp;th=1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/AZDelivery-Reader-Speicher-Memory-Arduino/dp/B077MB17JB/ref=alp_dpwidget_a_w_?th=1&amp;smid=A1X7QLRQH87QA3</t>
+  </si>
+  <si>
+    <t>AZDelivery 5 x Set SPI Reader Micro Speicher SD TF Karte Memory Card Shield Modul für Arduino inklusive E-Book!</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/Intenso-Micro-Class-Speicherkarte-SD-Adapter/dp/B008RDCCFS/ref=sr_1_25?__mk_de_DE=%C3%85M%C3%85%C5%</t>
+  </si>
+  <si>
+    <t>Intenso Micro SDHC 8GB Class 10 Speicherkarte inkl. SD-Adapter schwarz</t>
   </si>
 </sst>
 </file>
@@ -218,7 +236,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -243,68 +261,11 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -313,38 +274,27 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="2" builtinId="8"/>
@@ -661,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E317669C-0758-4774-A45B-AEFA3B55E9BE}">
-  <dimension ref="A2:I29"/>
+  <dimension ref="A2:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,212 +626,270 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="5">
         <v>6.79</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>5</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="5">
         <f>F3*G3</f>
         <v>33.950000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="11">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="15">
         <f>5*1.409</f>
         <v>7.0449999999999999</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="7">
         <v>5</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="30">
-        <f t="shared" ref="I4:I8" si="0">F4*G4</f>
+      <c r="H4" s="7"/>
+      <c r="I4" s="13">
+        <f t="shared" ref="I4:I10" si="0">F4*G4</f>
         <v>35.225000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="16">
         <v>8.99</v>
       </c>
       <c r="G5" s="3">
         <v>1</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="18">
+      <c r="H5" s="3"/>
+      <c r="I5" s="5">
         <f t="shared" si="0"/>
         <v>8.99</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="15">
         <v>16.989999999999998</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="7">
         <v>1</v>
       </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="30">
+      <c r="H6" s="7"/>
+      <c r="I6" s="13">
         <f t="shared" si="0"/>
         <v>16.989999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+    <row r="7" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>100676</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="18">
         <v>4.05</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="6">
         <v>5</v>
       </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="18">
+      <c r="H7" s="6"/>
+      <c r="I7" s="5">
         <f t="shared" si="0"/>
         <v>20.25</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="27">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="15">
+        <v>26.49</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F9" s="2"/>
+        <v>26.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="18">
+        <v>7.49</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="19">
+        <f t="shared" si="0"/>
+        <v>7.49</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F10" s="2"/>
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="15">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="G10" s="7">
+        <v>5</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="13">
+        <f t="shared" si="0"/>
+        <v>21.95</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F12" s="25"/>
-      <c r="I12" s="24"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F13" s="2"/>
-      <c r="I13" s="1">
-        <f>SUM(I3:I8)</f>
-        <v>115.405</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="10"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="F15" s="2"/>
+      <c r="I15" s="1">
+        <f>SUM(I3:I10)</f>
+        <v>171.33500000000001</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F16" s="2"/>
@@ -923,7 +931,13 @@
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F29" s="1"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F31" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -932,8 +946,10 @@
     <hyperlink ref="E6" r:id="rId3" xr:uid="{D15B6248-C8E8-4787-BC42-84DDA3EDA92B}"/>
     <hyperlink ref="E3" r:id="rId4" xr:uid="{6A5839D8-0EBB-407B-873D-D42C0798BECE}"/>
     <hyperlink ref="E7" r:id="rId5" xr:uid="{8DC7145A-4F46-45B6-B465-1FEE527E024D}"/>
+    <hyperlink ref="E8" r:id="rId6" xr:uid="{A6759FAF-7922-4CD3-A828-C95D05087127}"/>
+    <hyperlink ref="E9" r:id="rId7" xr:uid="{DF8231B9-BEF8-40EA-805F-2A70A6094883}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>